--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -1,80 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\Documents\SpiderOak Hive\Work\Publications\Constraints to climate policy\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="cluster_description" sheetId="1" r:id="rId1"/>
+    <sheet name="cluster_description" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>co2</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Algeria; Azerbaijan; Egypt; Iran (Islamic Republic of); Iraq; Kuwait; Kyrgyzstan; Libya; Mozambique; Saudi Arabia; Uzbekistan; Venezuela (Bolivarian Republic of); Zambia; Zimbabwe</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Argentina; Belarus; Brazil; Colombia; Costa Rica; Ecuador; Hungary; Indonesia; Italy; Mexico; Peru; Philippines; Portugal; Romania; Slovakia; Spain; Thailand; Uruguay</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Armenia; Bangladesh; Benin; Bolivia (Plurinational State of); Cameroon; Cyprus; Dominican Republic; El Salvador; Ghana; Guatemala; Haiti; Honduras; Jordan; Kenya; Lebanon; Malaysia; Morocco; Namibia; Nicaragua; Nigeria; Pakistan; Panama; Paraguay; Republic of Moldova; Senegal; Togo; Tunisia; United Republic of Tanzania; Yemen</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Australia; Austria; Belgium; Canada; Chile; Denmark; Estonia; Finland; France; Germany; Ireland; Japan; Latvia; Lithuania; Netherlands; New Zealand; Norway; Singapore; Slovenia; Sweden; United Kingdom; United States of America</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Botswana; Bulgaria; China; Czechia; Greece; India; Israel; Kazakhstan; Poland; Republic of Korea; Russian Federation; South Africa; Trinidad and Tobago; Turkey; Ukraine; Viet Nam</t>
+    <t xml:space="preserve">cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria; Azerbaijan; Egypt; Iran (Islamic Republic of); Iraq; Kuwait; Kyrgyzstan; Libya; Mozambique; Saudi Arabia; Uzbekistan; Venezuela (Bolivarian Republic of); Zambia; Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina; Belarus; Brazil; Colombia; Costa Rica; Ecuador; Hungary; Indonesia; Italy; Mexico; Peru; Philippines; Portugal; Romania; Slovakia; Spain; Thailand; Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia; Bangladesh; Benin; Bolivia (Plurinational State of); Cameroon; Cyprus; Dominican Republic; El Salvador; Ghana; Guatemala; Haiti; Honduras; Jordan; Kenya; Lebanon; Malaysia; Morocco; Namibia; Nicaragua; Nigeria; Pakistan; Panama; Paraguay; Republic of Moldova; Senegal; Togo; Tunisia; United Republic of Tanzania; Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia; Austria; Belgium; Canada; Chile; Denmark; Estonia; Finland; France; Germany; Ireland; Japan; Latvia; Lithuania; Netherlands; New Zealand; Norway; Singapore; Slovenia; Sweden; United Kingdom; United States of America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana; Bulgaria; China; Czechia; Greece; India; Israel; Kazakhstan; Poland; Republic of Korea; Russian Federation; South Africa; Trinidad and Tobago; Turkey; Ukraine; Viet Nam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,28 +87,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -403,16 +378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,71 +399,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>6.5316441194470401E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5.8913363542847999E-2</v>
+      <c r="B2" t="n">
+        <v>0.0653164411944704</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.058913363542848</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>8.94844583090047E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.14400144411622501</v>
+      <c r="B3" t="n">
+        <v>0.0894844583090047</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.144001444116225</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <v>2.7691511171187299E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.12759862069853201</v>
+      <c r="B4" t="n">
+        <v>0.0276915111711873</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.127598620698532</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.27056612782120099</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.11011912326724101</v>
+      <c r="B5" t="n">
+        <v>0.270566127821201</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.110119123267241</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.46736757210429403</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.43947025713988502</v>
+      <c r="B6" t="n">
+        <v>0.467367572104294</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.439470257139885</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -498,6 +471,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">cluster</t>
   </si>
@@ -26,34 +26,40 @@
     <t xml:space="preserve">countries</t>
   </si>
   <si>
+    <t xml:space="preserve">co2_frac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop_frac</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">Algeria; Azerbaijan; Egypt; Iran (Islamic Republic of); Iraq; Kuwait; Kyrgyzstan; Libya; Mozambique; Saudi Arabia; Uzbekistan; Venezuela (Bolivarian Republic of); Zambia; Zimbabwe</t>
+    <t xml:space="preserve">Algeria; Azerbaijan; Egypt; Iran (Islamic Republic of); Iraq; Kuwait; Libya; Saudi Arabia; Uzbekistan; Venezuela (Bolivarian Republic of); Zimbabwe</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">Argentina; Belarus; Brazil; Colombia; Costa Rica; Ecuador; Hungary; Indonesia; Italy; Mexico; Peru; Philippines; Portugal; Romania; Slovakia; Spain; Thailand; Uruguay</t>
+    <t xml:space="preserve">Argentina; Belarus; Brazil; Chile; Colombia; Costa Rica; Cyprus; Czechia; Ecuador; Estonia; Greece; Hungary; Latvia; Lithuania; Peru; Portugal; Romania; Slovakia; Slovenia; Trinidad and Tobago; Uruguay</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">Armenia; Bangladesh; Benin; Bolivia (Plurinational State of); Cameroon; Cyprus; Dominican Republic; El Salvador; Ghana; Guatemala; Haiti; Honduras; Jordan; Kenya; Lebanon; Malaysia; Morocco; Namibia; Nicaragua; Nigeria; Pakistan; Panama; Paraguay; Republic of Moldova; Senegal; Togo; Tunisia; United Republic of Tanzania; Yemen</t>
+    <t xml:space="preserve">Armenia; Bangladesh; Benin; Bolivia (Plurinational State of); Cameroon; Dominican Republic; El Salvador; Ghana; Guatemala; Haiti; Honduras; Jordan; Kenya; Lebanon; Mexico; Morocco; Mozambique; Namibia; Nicaragua; Nigeria; Pakistan; Panama; Paraguay; Philippines; Republic of Moldova; Senegal; Togo; Tunisia; United Republic of Tanzania; Yemen; Zambia</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia; Austria; Belgium; Canada; Chile; Denmark; Estonia; Finland; France; Germany; Ireland; Japan; Latvia; Lithuania; Netherlands; New Zealand; Norway; Singapore; Slovenia; Sweden; United Kingdom; United States of America</t>
+    <t xml:space="preserve">Australia; Austria; Belgium; Canada; Denmark; Finland; France; Germany; Ireland; Israel; Italy; Japan; Netherlands; New Zealand; Norway; Republic of Korea; Singapore; Spain; Sweden; United Kingdom; United States of America</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">Botswana; Bulgaria; China; Czechia; Greece; India; Israel; Kazakhstan; Poland; Republic of Korea; Russian Federation; South Africa; Trinidad and Tobago; Turkey; Ukraine; Viet Nam</t>
+    <t xml:space="preserve">Botswana; Bulgaria; China; India; Indonesia; Kazakhstan; Kyrgyzstan; Malaysia; Poland; Russian Federation; South Africa; Thailand; Turkey; Ukraine; Viet Nam</t>
   </si>
 </sst>
 </file>
@@ -398,75 +404,111 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0653164411944704</v>
+        <v>2335948737.37047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.058913363542848</v>
+        <v>392003255</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0646123926604703</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0519191585346528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0894844583090047</v>
+        <v>1534383742.08168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.144001444116225</v>
+        <v>465035220</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0424410875329496</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0615919306878642</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0276915111711873</v>
+        <v>1371971004.98803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.127598620698532</v>
+        <v>1211443545</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0379487477079031</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.160450528576955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270566127821201</v>
+        <v>10961791460.5727</v>
       </c>
       <c r="C5" t="n">
-        <v>0.110119123267241</v>
+        <v>970161945</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.303203389176253</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.128493810151505</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.467367572104294</v>
+        <v>17072311056.5041</v>
       </c>
       <c r="C6" t="n">
-        <v>0.439470257139885</v>
+        <v>3606362917</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.472220493522581</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.477647380813754</v>
       </c>
     </row>
   </sheetData>
